--- a/data/trans_dic/P78A_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P78A_2023-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.8952393414324797</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8142937110918197</v>
+        <v>0.8142937110918196</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.8473668225301084</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8355604409371936</v>
+        <v>0.8328696802342935</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7730313564418898</v>
+        <v>0.7733457116904199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8161684738645969</v>
+        <v>0.8127069749494579</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9373199656069801</v>
+        <v>0.9363531839625547</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8468896650431407</v>
+        <v>0.8453996076923622</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8756358439818628</v>
+        <v>0.8731624251517525</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.7707706459402133</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8203192664013145</v>
+        <v>0.8203192664013146</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8571303900996439</v>
+        <v>0.8570159144072933</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7411906513889014</v>
+        <v>0.7386660482774917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7959393428692708</v>
+        <v>0.7945150609699203</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9400012257184807</v>
+        <v>0.940033310251719</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7990242384384131</v>
+        <v>0.7997431781415167</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8423418276278234</v>
+        <v>0.8444159691795684</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8123887744078937</v>
+        <v>0.8123887744078938</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.7295561681042653</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7552866649611946</v>
+        <v>0.7567704255850434</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6884121795527537</v>
+        <v>0.6893608206343429</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7331605983155278</v>
+        <v>0.7330101686796338</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8614980203551467</v>
+        <v>0.8605148183283171</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.765240692479763</v>
+        <v>0.7648020867426787</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7962903949494382</v>
+        <v>0.7959517515236012</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8438644078282794</v>
+        <v>0.8438644078282798</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.7600229360376847</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7823318034422482</v>
+        <v>0.7834846649305425</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7097589832168373</v>
+        <v>0.709538846786218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7635259150387669</v>
+        <v>0.7605927978428573</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.893431074674318</v>
+        <v>0.8993201364922749</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8007028874267071</v>
+        <v>0.8020429263419495</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8340789994006967</v>
+        <v>0.8329531684500733</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8631600258106873</v>
+        <v>0.8631600258106871</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.767193783659509</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8068215765961182</v>
+        <v>0.8068215765961181</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8373781584557842</v>
+        <v>0.8369700910398925</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7463370736019846</v>
+        <v>0.7482694863827428</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7914180626236176</v>
+        <v>0.7929476474493918</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8887800673864278</v>
+        <v>0.886818153266402</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.785995157161393</v>
+        <v>0.7863789788247978</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8212541487104776</v>
+        <v>0.8214890580135455</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>263666</v>
+        <v>262817</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>353089</v>
+        <v>353233</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>630339</v>
+        <v>627666</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>295777</v>
+        <v>295472</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>386824</v>
+        <v>386144</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>676267</v>
+        <v>674356</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>384286</v>
+        <v>384235</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>560220</v>
+        <v>558312</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>958453</v>
+        <v>956738</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>421440</v>
+        <v>421455</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>603933</v>
+        <v>604476</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1014329</v>
+        <v>1016827</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>315973</v>
+        <v>316593</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>386258</v>
+        <v>386790</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>718082</v>
+        <v>717934</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>360406</v>
+        <v>359995</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>429365</v>
+        <v>429119</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>779913</v>
+        <v>779581</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>288932</v>
+        <v>289358</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>306732</v>
+        <v>306636</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>611955</v>
+        <v>609604</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>329964</v>
+        <v>332139</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>346034</v>
+        <v>346613</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>668502</v>
+        <v>667599</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1299247</v>
+        <v>1298613</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1646304</v>
+        <v>1650567</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2973682</v>
+        <v>2979429</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1379000</v>
+        <v>1375956</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1733783</v>
+        <v>1734630</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3085789</v>
+        <v>3086671</v>
       </c>
     </row>
     <row r="24">
